--- a/main.xlsx
+++ b/main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07966DF7-D755-41CB-8C6F-FC748A54A104}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA51A0BC-0E49-454A-9AEB-CA2A55622A71}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
